--- a/biology/Zoologie/Cechenena_helops/Cechenena_helops.xlsx
+++ b/biology/Zoologie/Cechenena_helops/Cechenena_helops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cechenena helops est une espèce d'insectes lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, tribu des Macroglossini, sous-tribu des Choerocampina et du genre Cechenena.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 104 à 126 mm. Les adultes ont  des couleurs gris-vert avec une grande tache brune à brun-olive ovale à la base de la face supérieure de l'aile antérieure.
 			Cechenena helops helops Face dorsale MHNT
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 Il se trouve en Malaisie (péninsulaire, Sarawak, Sabah),  en Indonésie (Sumatra, Java, Bornéo, Céram, Papouasie-Nouvelle-Guinée), aux  Philippines (Palawan, Balabac), au Népal, au nord-est de l'Inde, en  Thaïlande, en  Chine du sud-ouest et au Vietnam.</t>
@@ -575,10 +591,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes ont un vol rapide et visitent les fleurs après le crépuscule.
-Les larves se nourrissent sur le genre Tetrastigma[1].
+Les larves se nourrissent sur le genre Tetrastigma.
 </t>
         </is>
       </c>
@@ -607,14 +625,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cechenena helops a été décrite par l'entomologiste britannique Francis Walker en 1856[2], sous le nom initial de Philampelus helops.
-Taxinomie
-Liste des sous-espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Cechenena helops a été décrite par l'entomologiste britannique Francis Walker en 1856, sous le nom initial de Philampelus helops.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cechenena_helops</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cechenena_helops</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des sous-espèces
 Cechenena helops helops Walker, 1856
 Cechenena helops interposita Joicey &amp; Talbot, 1921
-Cechenena helops papuana Rothschild &amp; Jordan, 1903 (Papua Barat et la Papouasie-Nouvelle-Guinée)[3].
+Cechenena helops papuana Rothschild &amp; Jordan, 1903 (Papua Barat et la Papouasie-Nouvelle-Guinée).
 			Cechenena helops papuana Face dorsale MHNT
 			Cechenena helops papuana Revers MHNT
 </t>
